--- a/P2/results/Group5-Response.xlsx
+++ b/P2/results/Group5-Response.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EE98F-14CC-43A6-B349-5AFF2A6D9A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/Desktop/github/CS5331-VirtualReality/P2/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -91,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,16 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K35"/>
+      <selection activeCell="J37" sqref="J37:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="236" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -507,7 +514,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -538,7 +545,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -573,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -604,7 +611,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -637,7 +644,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -670,7 +677,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -703,7 +710,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -736,7 +743,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -769,7 +776,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -802,7 +809,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -837,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -872,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -905,7 +912,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -938,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1002,7 +1009,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1035,7 +1042,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1068,7 +1075,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>9</v>
       </c>
@@ -1200,7 +1207,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>9</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -1303,7 +1310,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -1369,7 +1376,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -1437,7 +1444,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -1470,7 +1477,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -1503,7 +1510,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -1536,7 +1543,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -1569,7 +1576,7 @@
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>8</v>
       </c>
@@ -1601,6 +1608,60 @@
         <v>9</v>
       </c>
       <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>AVERAGE(A2:A35)</f>
+        <v>8.5</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:J36" si="0">AVERAGE(B2:B35)</f>
+        <v>7.3636363636363633</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>8.2941176470588243</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>9.1764705882352935</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>8.4411764705882355</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>9.1470588235294112</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>J36*1.5</f>
+        <v>13.23529411764706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f>(J37+14*3)/4</f>
+        <v>13.808823529411764</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
